--- a/notebooks/verification_data/Bie19/bie19.xlsx
+++ b/notebooks/verification_data/Bie19/bie19.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srate\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IMB\PyCharm_workspace\bmcs_beam\notebooks\verification_data\bie19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839F8467-D5B0-4462-8EE7-09C78565D218}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A02640F-61E5-423F-8C18-578981A6C95D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1900" windowWidth="10800" windowHeight="8780" xr2:uid="{D55FF0B8-A0B8-411B-9511-E380CD764B84}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D55FF0B8-A0B8-411B-9511-E380CD764B84}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -408,996 +408,904 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42EF39F3-417C-4088-A253-AFB6B8C7C447}">
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.7265625" customWidth="1"/>
+    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.26953125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.7265625" customWidth="1"/>
-    <col min="7" max="7" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
       <c r="D2" s="1">
         <v>0</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1">
+      <c r="F2" s="1">
         <v>0</v>
       </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
+        <v>13.29192546583851</v>
+      </c>
+      <c r="B3" s="1">
         <v>0.68322981366459634</v>
       </c>
-      <c r="B3" s="1">
-        <v>13.29192546583851</v>
-      </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="1">
+        <v>10.372670807453417</v>
+      </c>
       <c r="D3" s="1">
         <v>0.74534161490683237</v>
       </c>
       <c r="E3" s="1">
-        <v>10.372670807453417</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="1">
+        <v>8.3229813664596275</v>
+      </c>
+      <c r="F3" s="1">
         <v>0.80745341614906829</v>
       </c>
-      <c r="H3" s="1">
-        <v>8.3229813664596275</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
+        <v>6.5838509316770191</v>
+      </c>
+      <c r="B4" s="1">
         <v>0.93167701863354035</v>
       </c>
-      <c r="B4" s="1">
-        <v>6.5838509316770191</v>
-      </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="1">
+        <v>8.4472049689440993</v>
+      </c>
       <c r="D4" s="1">
         <v>0.74534161490683237</v>
       </c>
       <c r="E4" s="1">
-        <v>8.4472049689440993</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="1">
+        <v>3.5403726708074537</v>
+      </c>
+      <c r="F4" s="1">
         <v>0.80745341614906829</v>
       </c>
-      <c r="H4" s="1">
-        <v>3.5403726708074537</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
+        <v>7.329192546583851</v>
+      </c>
+      <c r="B5" s="1">
         <v>0.99378881987577627</v>
       </c>
-      <c r="B5" s="1">
-        <v>7.329192546583851</v>
-      </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="1">
+        <v>4.658385093167702</v>
+      </c>
       <c r="D5" s="1">
         <v>0.93167701863354035</v>
       </c>
       <c r="E5" s="1">
-        <v>4.658385093167702</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="1">
+        <v>3.7267080745341614</v>
+      </c>
+      <c r="F5" s="1">
         <v>1.0559006211180124</v>
       </c>
-      <c r="H5" s="1">
-        <v>3.7267080745341614</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
+        <v>7.9503105590062102</v>
+      </c>
+      <c r="B6" s="1">
         <v>1.0559006211180124</v>
       </c>
-      <c r="B6" s="1">
-        <v>7.9503105590062102</v>
-      </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="1">
+        <v>5.6521739130434776</v>
+      </c>
       <c r="D6" s="1">
         <v>0.99378881987577627</v>
       </c>
       <c r="E6" s="1">
-        <v>5.6521739130434776</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="1">
+        <v>4.2857142857142856</v>
+      </c>
+      <c r="F6" s="1">
         <v>1.1180124223602486</v>
       </c>
-      <c r="H6" s="1">
-        <v>4.2857142857142856</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
+        <v>8.695652173913043</v>
+      </c>
+      <c r="B7" s="1">
         <v>1.1180124223602486</v>
       </c>
-      <c r="B7" s="1">
-        <v>8.695652173913043</v>
-      </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="1">
+        <v>6.1490683229813667</v>
+      </c>
       <c r="D7" s="1">
         <v>1.0559006211180124</v>
       </c>
       <c r="E7" s="1">
-        <v>6.1490683229813667</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="1">
+        <v>5.2173913043478262</v>
+      </c>
+      <c r="F7" s="1">
         <v>1.4285714285714284</v>
       </c>
-      <c r="H7" s="1">
-        <v>5.2173913043478262</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
+        <v>9.316770186335404</v>
+      </c>
+      <c r="B8" s="1">
         <v>1.2422360248447204</v>
       </c>
-      <c r="B8" s="1">
-        <v>9.316770186335404</v>
-      </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="1">
+        <v>6.8944099378881987</v>
+      </c>
       <c r="D8" s="1">
         <v>1.2422360248447204</v>
       </c>
       <c r="E8" s="1">
-        <v>6.8944099378881987</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="1">
+        <v>6.7701863354037259</v>
+      </c>
+      <c r="F8" s="1">
         <v>1.9875776397515525</v>
       </c>
-      <c r="H8" s="1">
-        <v>6.7701863354037259</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
+        <v>9.9378881987577632</v>
+      </c>
+      <c r="B9" s="1">
         <v>1.3664596273291927</v>
       </c>
-      <c r="B9" s="1">
-        <v>9.9378881987577632</v>
-      </c>
-      <c r="C9" s="3"/>
+      <c r="C9" s="1">
+        <v>7.7018633540372674</v>
+      </c>
       <c r="D9" s="1">
         <v>1.4285714285714284</v>
       </c>
       <c r="E9" s="1">
-        <v>7.7018633540372674</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="1">
+        <v>6.9565217391304346</v>
+      </c>
+      <c r="F9" s="1">
         <v>2.1739130434782608</v>
       </c>
-      <c r="H9" s="1">
-        <v>6.9565217391304346</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
+        <v>10.434782608695652</v>
+      </c>
+      <c r="B10" s="1">
         <v>1.5527950310559004</v>
       </c>
-      <c r="B10" s="1">
-        <v>10.434782608695652</v>
-      </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="1">
+        <v>8.5093167701863361</v>
+      </c>
       <c r="D10" s="1">
         <v>1.6770186335403727</v>
       </c>
       <c r="E10" s="1">
-        <v>8.5093167701863361</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="1">
+        <v>9.1925465838509304</v>
+      </c>
+      <c r="F10" s="1">
         <v>3.2298136645962732</v>
       </c>
-      <c r="H10" s="1">
-        <v>9.1925465838509304</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
+        <v>11.180124223602483</v>
+      </c>
+      <c r="B11" s="1">
         <v>1.8012422360248448</v>
       </c>
-      <c r="B11" s="1">
-        <v>11.180124223602483</v>
-      </c>
-      <c r="C11" s="3"/>
+      <c r="C11" s="1">
+        <v>9.0683229813664603</v>
+      </c>
       <c r="D11" s="1">
         <v>1.9254658385093169</v>
       </c>
       <c r="E11" s="1">
-        <v>9.0683229813664603</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="1">
+        <v>6.0248447204968949</v>
+      </c>
+      <c r="F11" s="1">
         <v>3.2298136645962732</v>
       </c>
-      <c r="H11" s="1">
-        <v>6.0248447204968949</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
+        <v>11.801242236024844</v>
+      </c>
+      <c r="B12" s="1">
         <v>1.9875776397515525</v>
       </c>
-      <c r="B12" s="1">
-        <v>11.801242236024844</v>
-      </c>
-      <c r="C12" s="3"/>
+      <c r="C12" s="1">
+        <v>9.8136645962732914</v>
+      </c>
       <c r="D12" s="1">
         <v>2.2981366459627326</v>
       </c>
       <c r="E12" s="1">
-        <v>9.8136645962732914</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="1">
+        <v>6.0248447204968949</v>
+      </c>
+      <c r="F12" s="1">
         <v>3.3540372670807455</v>
       </c>
-      <c r="H12" s="1">
-        <v>6.0248447204968949</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
+        <v>12.546583850931675</v>
+      </c>
+      <c r="B13" s="1">
         <v>2.2981366459627326</v>
       </c>
-      <c r="B13" s="1">
-        <v>12.546583850931675</v>
-      </c>
-      <c r="C13" s="3"/>
+      <c r="C13" s="1">
+        <v>9.1304347826086953</v>
+      </c>
       <c r="D13" s="1">
         <v>2.360248447204969</v>
       </c>
       <c r="E13" s="1">
-        <v>9.1304347826086953</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="1">
+        <v>6.645962732919255</v>
+      </c>
+      <c r="F13" s="1">
         <v>3.5403726708074537</v>
       </c>
-      <c r="H13" s="1">
-        <v>6.645962732919255</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
+        <v>12.04968944099379</v>
+      </c>
+      <c r="B14" s="1">
         <v>2.8571428571428568</v>
       </c>
-      <c r="B14" s="1">
-        <v>12.04968944099379</v>
-      </c>
-      <c r="C14" s="3"/>
+      <c r="C14" s="1">
+        <v>9.5652173913043477</v>
+      </c>
       <c r="D14" s="1">
         <v>2.5465838509316767</v>
       </c>
       <c r="E14" s="1">
-        <v>9.5652173913043477</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="1">
+        <v>9.4409937888198758</v>
+      </c>
+      <c r="F14" s="1">
         <v>4.8447204968944106</v>
       </c>
-      <c r="H14" s="1">
-        <v>9.4409937888198758</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
+        <v>12.732919254658386</v>
+      </c>
+      <c r="B15" s="1">
         <v>3.2298136645962732</v>
       </c>
-      <c r="B15" s="1">
-        <v>12.732919254658386</v>
-      </c>
-      <c r="C15" s="3"/>
+      <c r="C15" s="1">
+        <v>9.5031055900621126</v>
+      </c>
       <c r="D15" s="1">
         <v>2.7329192546583854</v>
       </c>
       <c r="E15" s="1">
-        <v>9.5031055900621126</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="1">
+        <v>6.8944099378881987</v>
+      </c>
+      <c r="F15" s="1">
         <v>4.9068322981366457</v>
       </c>
-      <c r="H15" s="1">
-        <v>6.8944099378881987</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
+        <v>13.229813664596273</v>
+      </c>
+      <c r="B16" s="1">
         <v>3.4161490683229809</v>
       </c>
-      <c r="B16" s="1">
-        <v>13.229813664596273</v>
-      </c>
-      <c r="C16" s="3"/>
+      <c r="C16" s="1">
+        <v>9.6273291925465845</v>
+      </c>
       <c r="D16" s="1">
         <v>2.9192546583850931</v>
       </c>
       <c r="E16" s="1">
-        <v>9.6273291925465845</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="1">
+        <v>7.5155279503105588</v>
+      </c>
+      <c r="F16" s="1">
         <v>5.1552795031055894</v>
       </c>
-      <c r="H16" s="1">
-        <v>7.5155279503105588</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
+        <v>13.726708074534162</v>
+      </c>
+      <c r="B17" s="1">
         <v>3.6645962732919255</v>
       </c>
-      <c r="B17" s="1">
-        <v>13.726708074534162</v>
-      </c>
-      <c r="C17" s="3"/>
+      <c r="C17" s="1">
+        <v>9.1925465838509304</v>
+      </c>
       <c r="D17" s="1">
         <v>2.9192546583850931</v>
       </c>
       <c r="E17" s="1">
-        <v>9.1925465838509304</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="1">
+        <v>8.3229813664596275</v>
+      </c>
+      <c r="F17" s="1">
         <v>5.4037267080745348</v>
       </c>
-      <c r="H17" s="1">
-        <v>8.3229813664596275</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
+        <v>14.09937888198758</v>
+      </c>
+      <c r="B18" s="1">
         <v>3.8509316770186337</v>
       </c>
-      <c r="B18" s="1">
-        <v>14.09937888198758</v>
-      </c>
-      <c r="C18" s="3"/>
+      <c r="C18" s="1">
+        <v>9.7515527950310563</v>
+      </c>
       <c r="D18" s="1">
         <v>3.1055900621118009</v>
       </c>
       <c r="E18" s="1">
-        <v>9.7515527950310563</v>
-      </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="1">
+        <v>9.0683229813664603</v>
+      </c>
+      <c r="F18" s="1">
         <v>5.7763975155279503</v>
       </c>
-      <c r="H18" s="1">
-        <v>9.0683229813664603</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
+        <v>13.29192546583851</v>
+      </c>
+      <c r="B19" s="1">
         <v>3.9130434782608696</v>
       </c>
-      <c r="B19" s="1">
-        <v>13.29192546583851</v>
-      </c>
-      <c r="C19" s="3"/>
+      <c r="C19" s="1">
+        <v>10.124223602484472</v>
+      </c>
       <c r="D19" s="1">
         <v>3.2919254658385095</v>
       </c>
       <c r="E19" s="1">
+        <v>9.8136645962732914</v>
+      </c>
+      <c r="F19" s="1">
+        <v>6.2111801242236018</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>12.422360248447204</v>
+      </c>
+      <c r="B20" s="1">
+        <v>4.037267080745341</v>
+      </c>
+      <c r="C20" s="1">
         <v>10.124223602484472</v>
       </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="1">
-        <v>6.2111801242236018</v>
-      </c>
-      <c r="H19" s="1">
-        <v>9.8136645962732914</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
-        <v>4.037267080745341</v>
-      </c>
-      <c r="B20" s="1">
-        <v>12.422360248447204</v>
-      </c>
-      <c r="C20" s="3"/>
       <c r="D20" s="1">
         <v>3.5403726708074537</v>
       </c>
       <c r="E20" s="1">
-        <v>10.124223602484472</v>
-      </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="1">
+        <v>10.496894409937889</v>
+      </c>
+      <c r="F20" s="1">
         <v>6.7080745341614909</v>
       </c>
-      <c r="H20" s="1">
-        <v>10.496894409937889</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
+        <v>12.795031055900621</v>
+      </c>
+      <c r="B21" s="1">
         <v>4.2236024844720497</v>
       </c>
-      <c r="B21" s="1">
-        <v>12.795031055900621</v>
-      </c>
-      <c r="C21" s="3"/>
+      <c r="C21" s="1">
+        <v>10.621118012422359</v>
+      </c>
       <c r="D21" s="1">
         <v>3.7888198757763973</v>
       </c>
       <c r="E21" s="1">
-        <v>10.621118012422359</v>
-      </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="1">
+        <v>11.24223602484472</v>
+      </c>
+      <c r="F21" s="1">
         <v>7.391304347826086</v>
       </c>
-      <c r="H21" s="1">
-        <v>11.24223602484472</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
+        <v>13.167701863354038</v>
+      </c>
+      <c r="B22" s="1">
         <v>4.3478260869565215</v>
       </c>
-      <c r="B22" s="1">
-        <v>13.167701863354038</v>
-      </c>
-      <c r="C22" s="3"/>
+      <c r="C22" s="1">
+        <v>10.80745341614907</v>
+      </c>
       <c r="D22" s="1">
         <v>3.9130434782608696</v>
       </c>
       <c r="E22" s="1">
-        <v>10.80745341614907</v>
-      </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="1">
+        <v>10.496894409937889</v>
+      </c>
+      <c r="F22" s="1">
         <v>7.4534161490683228</v>
       </c>
-      <c r="H22" s="1">
-        <v>10.496894409937889</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
+        <v>13.664596273291924</v>
+      </c>
+      <c r="B23" s="1">
         <v>4.5341614906832302</v>
       </c>
-      <c r="B23" s="1">
-        <v>13.664596273291924</v>
-      </c>
-      <c r="C23" s="3"/>
+      <c r="C23" s="1">
+        <v>10.869565217391305</v>
+      </c>
       <c r="D23" s="1">
         <v>4.0993788819875778</v>
       </c>
       <c r="E23" s="1">
-        <v>10.869565217391305</v>
-      </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="1">
+        <v>8.7577639751552798</v>
+      </c>
+      <c r="F23" s="1">
         <v>7.4534161490683228</v>
       </c>
-      <c r="H23" s="1">
-        <v>8.7577639751552798</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
+        <v>12.360248447204969</v>
+      </c>
+      <c r="B24" s="1">
         <v>4.658385093167702</v>
       </c>
-      <c r="B24" s="1">
-        <v>12.360248447204969</v>
-      </c>
-      <c r="C24" s="3"/>
+      <c r="C24" s="1">
+        <v>11.428571428571427</v>
+      </c>
       <c r="D24" s="1">
         <v>4.4720496894409942</v>
       </c>
       <c r="E24" s="1">
-        <v>11.428571428571427</v>
-      </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="1">
+        <v>9.5652173913043477</v>
+      </c>
+      <c r="F24" s="1">
         <v>7.7639751552795033</v>
       </c>
-      <c r="H24" s="1">
-        <v>9.5652173913043477</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
+        <v>13.043478260869566</v>
+      </c>
+      <c r="B25" s="1">
         <v>4.8447204968944106</v>
       </c>
-      <c r="B25" s="1">
-        <v>13.043478260869566</v>
-      </c>
-      <c r="C25" s="3"/>
+      <c r="C25" s="1">
+        <v>8.1987577639751557</v>
+      </c>
       <c r="D25" s="1">
         <v>4.5341614906832302</v>
       </c>
       <c r="E25" s="1">
-        <v>8.1987577639751557</v>
-      </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="1">
+        <v>10.310559006211179</v>
+      </c>
+      <c r="F25" s="1">
         <v>8.074534161490682</v>
       </c>
-      <c r="H25" s="1">
-        <v>10.310559006211179</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
+        <v>13.850931677018634</v>
+      </c>
+      <c r="B26" s="1">
         <v>5.0931677018633534</v>
       </c>
-      <c r="B26" s="1">
-        <v>13.850931677018634</v>
-      </c>
-      <c r="C26" s="3"/>
+      <c r="C26" s="1">
+        <v>8.8819875776397517</v>
+      </c>
       <c r="D26" s="1">
         <v>4.7826086956521738</v>
       </c>
       <c r="E26" s="1">
-        <v>8.8819875776397517</v>
-      </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="1">
+        <v>11.180124223602483</v>
+      </c>
+      <c r="F26" s="1">
         <v>8.633540372670808</v>
       </c>
-      <c r="H26" s="1">
-        <v>11.180124223602483</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
+        <v>14.658385093167702</v>
+      </c>
+      <c r="B27" s="1">
         <v>5.4037267080745348</v>
       </c>
-      <c r="B27" s="1">
-        <v>14.658385093167702</v>
-      </c>
-      <c r="C27" s="3"/>
+      <c r="C27" s="1">
+        <v>9.6273291925465845</v>
+      </c>
       <c r="D27" s="1">
         <v>5.0310559006211175</v>
       </c>
       <c r="E27" s="1">
-        <v>9.6273291925465845</v>
-      </c>
-      <c r="F27" s="3"/>
-      <c r="G27" s="1">
+        <v>12.04968944099379</v>
+      </c>
+      <c r="F27" s="1">
         <v>9.4409937888198758</v>
       </c>
-      <c r="H27" s="1">
-        <v>12.04968944099379</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
+        <v>15.77639751552795</v>
+      </c>
+      <c r="B28" s="1">
         <v>5.9006211180124222</v>
       </c>
-      <c r="B28" s="1">
-        <v>15.77639751552795</v>
-      </c>
-      <c r="C28" s="3"/>
+      <c r="C28" s="1">
+        <v>10.248447204968944</v>
+      </c>
       <c r="D28" s="1">
         <v>5.2795031055900621</v>
       </c>
       <c r="E28" s="1">
-        <v>10.248447204968944</v>
-      </c>
-      <c r="F28" s="3"/>
-      <c r="G28" s="1">
+        <v>12.546583850931675</v>
+      </c>
+      <c r="F28" s="1">
         <v>10.124223602484472</v>
       </c>
-      <c r="H28" s="1">
-        <v>12.546583850931675</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
+        <v>17.142857142857142</v>
+      </c>
+      <c r="B29" s="1">
         <v>6.4596273291925463</v>
       </c>
-      <c r="B29" s="1">
-        <v>17.142857142857142</v>
-      </c>
-      <c r="C29" s="3"/>
+      <c r="C29" s="1">
+        <v>10.869565217391305</v>
+      </c>
       <c r="D29" s="1">
         <v>5.5900621118012417</v>
       </c>
       <c r="E29" s="1">
+        <v>13.167701863354038</v>
+      </c>
+      <c r="F29" s="1">
         <v>10.869565217391305</v>
       </c>
-      <c r="F29" s="3"/>
-      <c r="G29" s="1">
-        <v>10.869565217391305</v>
-      </c>
-      <c r="H29" s="1">
-        <v>13.167701863354038</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
+        <v>18.260869565217391</v>
+      </c>
+      <c r="B30" s="1">
         <v>6.8944099378881987</v>
       </c>
-      <c r="B30" s="1">
-        <v>18.260869565217391</v>
-      </c>
-      <c r="C30" s="3"/>
+      <c r="C30" s="1">
+        <v>11.490683229813666</v>
+      </c>
       <c r="D30" s="1">
         <v>5.962732919254659</v>
       </c>
       <c r="E30" s="1">
-        <v>11.490683229813666</v>
-      </c>
-      <c r="F30" s="3"/>
-      <c r="G30" s="1">
+        <v>13.540372670807452</v>
+      </c>
+      <c r="F30" s="1">
         <v>11.366459627329192</v>
       </c>
-      <c r="H30" s="1">
-        <v>13.540372670807452</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
+        <v>19.813664596273291</v>
+      </c>
+      <c r="B31" s="1">
         <v>7.4534161490683228</v>
       </c>
-      <c r="B31" s="1">
-        <v>19.813664596273291</v>
-      </c>
-      <c r="C31" s="3"/>
+      <c r="C31" s="1">
+        <v>12.04968944099379</v>
+      </c>
       <c r="D31" s="1">
         <v>6.3354037267080745</v>
       </c>
       <c r="E31" s="1">
-        <v>12.04968944099379</v>
-      </c>
-      <c r="F31" s="3"/>
-      <c r="G31" s="1">
+        <v>13.540372670807452</v>
+      </c>
+      <c r="F31" s="1">
         <v>11.552795031055901</v>
       </c>
-      <c r="H31" s="1">
-        <v>13.540372670807452</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
+        <v>17.204968944099377</v>
+      </c>
+      <c r="B32" s="1">
         <v>7.6397515527950315</v>
       </c>
-      <c r="B32" s="1">
-        <v>17.204968944099377</v>
-      </c>
-      <c r="C32" s="3"/>
+      <c r="C32" s="1">
+        <v>12.732919254658386</v>
+      </c>
       <c r="D32" s="1">
         <v>6.8944099378881987</v>
       </c>
       <c r="E32" s="1">
-        <v>12.732919254658386</v>
-      </c>
-      <c r="F32" s="3"/>
-      <c r="G32" s="1">
+        <v>14.09937888198758</v>
+      </c>
+      <c r="F32" s="1">
         <v>12.173913043478262</v>
       </c>
-      <c r="H32" s="1">
-        <v>14.09937888198758</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
+        <v>18.819875776397517</v>
+      </c>
+      <c r="B33" s="1">
         <v>8.1366459627329188</v>
       </c>
-      <c r="B33" s="1">
-        <v>18.819875776397517</v>
-      </c>
-      <c r="C33" s="3"/>
+      <c r="C33" s="1">
+        <v>13.105590062111801</v>
+      </c>
       <c r="D33" s="1">
         <v>7.2670807453416151</v>
       </c>
       <c r="E33" s="1">
-        <v>13.105590062111801</v>
-      </c>
-      <c r="F33" s="3"/>
-      <c r="G33" s="1">
+        <v>12.422360248447204</v>
+      </c>
+      <c r="F33" s="1">
         <v>12.236024844720497</v>
       </c>
-      <c r="H33" s="1">
-        <v>12.422360248447204</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
+        <v>19.565217391304348</v>
+      </c>
+      <c r="B34" s="1">
         <v>8.5093167701863361</v>
       </c>
-      <c r="B34" s="1">
-        <v>19.565217391304348</v>
-      </c>
-      <c r="C34" s="3"/>
+      <c r="C34" s="1">
+        <v>13.043478260869566</v>
+      </c>
       <c r="D34" s="1">
         <v>7.391304347826086</v>
       </c>
       <c r="E34" s="1">
         <v>13.043478260869566</v>
       </c>
-      <c r="F34" s="3"/>
-      <c r="G34" s="1">
+      <c r="F34" s="1">
         <v>12.48447204968944</v>
       </c>
-      <c r="H34" s="1">
-        <v>13.043478260869566</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
+        <v>19.565217391304348</v>
+      </c>
+      <c r="B35" s="1">
         <v>8.8819875776397517</v>
       </c>
-      <c r="B35" s="1">
-        <v>19.565217391304348</v>
-      </c>
-      <c r="C35" s="3"/>
+      <c r="C35" s="1">
+        <v>14.161490683229815</v>
+      </c>
       <c r="D35" s="1">
         <v>8.1366459627329188</v>
       </c>
       <c r="E35" s="1">
-        <v>14.161490683229815</v>
-      </c>
-      <c r="F35" s="3"/>
-      <c r="G35" s="1">
+        <v>13.913043478260869</v>
+      </c>
+      <c r="F35" s="1">
         <v>12.981366459627328</v>
       </c>
-      <c r="H35" s="1">
-        <v>13.913043478260869</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
+        <v>19.937888198757765</v>
+      </c>
+      <c r="B36" s="1">
         <v>9.0683229813664603</v>
       </c>
-      <c r="B36" s="1">
-        <v>19.937888198757765</v>
-      </c>
-      <c r="C36" s="3"/>
+      <c r="C36" s="1">
+        <v>11.24223602484472</v>
+      </c>
       <c r="D36" s="1">
         <v>8.1987577639751557</v>
       </c>
       <c r="E36" s="1">
-        <v>11.24223602484472</v>
-      </c>
-      <c r="F36" s="3"/>
-      <c r="G36" s="1">
+        <v>13.416149068322982</v>
+      </c>
+      <c r="F36" s="1">
         <v>13.105590062111801</v>
       </c>
-      <c r="H36" s="1">
-        <v>13.416149068322982</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
+        <v>19.689440993788821</v>
+      </c>
+      <c r="B37" s="1">
         <v>9.4409937888198758</v>
       </c>
-      <c r="B37" s="1">
-        <v>19.689440993788821</v>
-      </c>
-      <c r="C37" s="3"/>
+      <c r="C37" s="1">
+        <v>11.863354037267079</v>
+      </c>
       <c r="D37" s="1">
         <v>8.3850931677018643</v>
       </c>
       <c r="E37" s="1">
-        <v>11.863354037267079</v>
-      </c>
-      <c r="F37" s="3"/>
-      <c r="G37" s="1">
+        <v>13.975155279503106</v>
+      </c>
+      <c r="F37" s="1">
         <v>13.354037267080745</v>
       </c>
-      <c r="H37" s="1">
-        <v>13.975155279503106</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
+      <c r="C38" s="1">
+        <v>12.298136645962733</v>
+      </c>
       <c r="D38" s="1">
         <v>8.5714285714285712</v>
       </c>
       <c r="E38" s="1">
-        <v>12.298136645962733</v>
-      </c>
-      <c r="F38" s="3"/>
-      <c r="G38" s="1">
+        <v>14.472049689440993</v>
+      </c>
+      <c r="F38" s="1">
         <v>13.788819875776397</v>
       </c>
-      <c r="H38" s="1">
-        <v>14.472049689440993</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
+      <c r="C39" s="1">
+        <v>12.608695652173914</v>
+      </c>
       <c r="D39" s="1">
         <v>8.7577639751552798</v>
       </c>
       <c r="E39" s="1">
-        <v>12.608695652173914</v>
-      </c>
-      <c r="F39" s="3"/>
-      <c r="G39" s="1">
+        <v>14.968944099378882</v>
+      </c>
+      <c r="F39" s="1">
         <v>14.409937888198758</v>
       </c>
-      <c r="H39" s="1">
-        <v>14.968944099378882</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
+      <c r="C40" s="1">
+        <v>12.857142857142858</v>
+      </c>
       <c r="D40" s="1">
         <v>9.0062111801242235</v>
       </c>
       <c r="E40" s="1">
-        <v>12.857142857142858</v>
-      </c>
-      <c r="F40" s="3"/>
-      <c r="G40" s="1">
+        <v>15.590062111801242</v>
+      </c>
+      <c r="F40" s="1">
         <v>15.217391304347828</v>
       </c>
-      <c r="H40" s="1">
-        <v>15.590062111801242</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
+      <c r="C41" s="1">
+        <v>12.857142857142858</v>
+      </c>
       <c r="D41" s="1">
         <v>9.1925465838509304</v>
       </c>
       <c r="E41" s="1">
-        <v>12.857142857142858</v>
-      </c>
-      <c r="F41" s="3"/>
-      <c r="G41" s="1">
+        <v>15.90062111801242</v>
+      </c>
+      <c r="F41" s="1">
         <v>15.77639751552795</v>
       </c>
-      <c r="H41" s="1">
-        <v>15.90062111801242</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
+      <c r="C42" s="1">
+        <v>13.29192546583851</v>
+      </c>
       <c r="D42" s="1">
         <v>9.378881987577639</v>
       </c>
       <c r="E42" s="1">
-        <v>13.29192546583851</v>
-      </c>
-      <c r="F42" s="3"/>
-      <c r="G42" s="1">
+        <v>15.90062111801242</v>
+      </c>
+      <c r="F42" s="1">
         <v>16.086956521739133</v>
       </c>
-      <c r="H42" s="1">
-        <v>15.90062111801242</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
+      <c r="C43" s="1">
+        <v>13.602484472049689</v>
+      </c>
       <c r="D43" s="1">
         <v>9.5652173913043477</v>
       </c>
       <c r="E43" s="1">
-        <v>13.602484472049689</v>
-      </c>
-      <c r="F43" s="3"/>
-      <c r="G43" s="1">
+        <v>14.782608695652172</v>
+      </c>
+      <c r="F43" s="1">
         <v>16.149068322981364</v>
       </c>
-      <c r="H43" s="1">
-        <v>14.782608695652172</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
+      <c r="C44" s="1">
+        <v>13.913043478260869</v>
+      </c>
       <c r="D44" s="1">
         <v>9.7515527950310563</v>
       </c>
       <c r="E44" s="1">
-        <v>13.913043478260869</v>
-      </c>
-      <c r="F44" s="3"/>
-      <c r="G44" s="1">
+        <v>6.2111801242236018</v>
+      </c>
+      <c r="F44" s="1">
         <v>16.086956521739133</v>
       </c>
-      <c r="H44" s="1">
-        <v>6.2111801242236018</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
+      <c r="C45" s="1">
+        <v>14.161490683229815</v>
+      </c>
       <c r="D45" s="1">
         <v>10</v>
       </c>
       <c r="E45" s="1">
-        <v>14.161490683229815</v>
-      </c>
-      <c r="F45" s="3"/>
-      <c r="G45" s="1">
+        <v>6.0869565217391308</v>
+      </c>
+      <c r="F45" s="1">
         <v>16.459627329192546</v>
       </c>
-      <c r="H45" s="1">
-        <v>6.0869565217391308</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
+      <c r="C46" s="1">
+        <v>14.53416149068323</v>
+      </c>
       <c r="D46" s="1">
         <v>10.434782608695652</v>
       </c>
       <c r="E46" s="1">
-        <v>14.53416149068323</v>
-      </c>
-      <c r="F46" s="3"/>
-      <c r="G46" s="1">
+        <v>6.3354037267080745</v>
+      </c>
+      <c r="F46" s="1">
         <v>16.583850931677016</v>
-      </c>
-      <c r="H46" s="1">
-        <v>6.3354037267080745</v>
       </c>
     </row>
   </sheetData>
